--- a/output/sites/table_summary_model_parameters.xlsx
+++ b/output/sites/table_summary_model_parameters.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">Site</t>
+  </si>
   <si>
     <t xml:space="preserve">min</t>
   </si>
@@ -32,9 +35,6 @@
     <t xml:space="preserve">max</t>
   </si>
   <si>
-    <t xml:space="preserve">Site</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parameter</t>
   </si>
   <si>
@@ -50,7 +50,10 @@
     <t xml:space="preserve">Body mass (kg)</t>
   </si>
   <si>
-    <t xml:space="preserve">Beta</t>
+    <t xml:space="preserve">Beta_land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_sea</t>
   </si>
   <si>
     <t xml:space="preserve">mean energy content of diet (kJ/kg)</t>
@@ -74,7 +77,10 @@
     <t xml:space="preserve">Assimilation rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Average Daily Metabolic Rate (kJ)</t>
+    <t xml:space="preserve">Average Daily Metabolic Rate (land) (kJ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Daily Metabolic Rate (sea) (kJ)</t>
   </si>
   <si>
     <t xml:space="preserve">Daily ration (kg)</t>
@@ -436,319 +442,559 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>542</v>
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>546</v>
+        <v>662</v>
       </c>
       <c r="C2" t="n">
-        <v>625</v>
+        <v>665</v>
       </c>
       <c r="D2" t="n">
-        <v>623</v>
+        <v>728</v>
       </c>
       <c r="E2" t="n">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="F2" t="n">
-        <v>709</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
+        <v>790</v>
+      </c>
+      <c r="G2" t="n">
+        <v>794</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>708</v>
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>709</v>
+        <v>913</v>
       </c>
       <c r="C3" t="n">
-        <v>726</v>
+        <v>919</v>
       </c>
       <c r="D3" t="n">
-        <v>726</v>
+        <v>1008</v>
       </c>
       <c r="E3" t="n">
-        <v>742</v>
+        <v>1006</v>
       </c>
       <c r="F3" t="n">
-        <v>743</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
+        <v>1091</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1095</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>15</v>
-      </c>
+      <c r="A4"/>
       <c r="B4" t="n">
-        <v>16.61</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>20.68</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>27.63</v>
       </c>
       <c r="E4" t="n">
-        <v>33.4</v>
+        <v>27.42</v>
       </c>
       <c r="F4" t="n">
-        <v>35</v>
-      </c>
-      <c r="G4"/>
+        <v>35.96</v>
+      </c>
+      <c r="G4" t="n">
+        <v>38</v>
+      </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
+      <c r="A5"/>
       <c r="B5" t="n">
-        <v>2.08</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>2.51</v>
+        <v>20.68</v>
       </c>
       <c r="D5" t="n">
-        <v>2.51</v>
+        <v>27.63</v>
       </c>
       <c r="E5" t="n">
-        <v>2.99</v>
+        <v>27.42</v>
       </c>
       <c r="F5" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="G5" t="n">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G7" t="n">
         <v>3.76</v>
       </c>
-      <c r="G5"/>
-      <c r="H5" t="s">
+      <c r="H7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10" t="n">
         <v>4000.03</v>
       </c>
-      <c r="B6" t="n">
-        <v>4406.37</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8042.49</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7932.44</v>
-      </c>
-      <c r="E6" t="n">
-        <v>12434.65</v>
-      </c>
-      <c r="F6" t="n">
-        <v>13999.9</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="C10" t="n">
+        <v>4400.97</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7976.44</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7894.66</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12083.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12999.97</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4399.66</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7977.19</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7900.23</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12080.98</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12" t="n">
         <v>0.15</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C12" t="n">
         <v>0.15</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D12" t="n">
         <v>0.2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E12" t="n">
         <v>0.2</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F12" t="n">
         <v>0.25</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G12" t="n">
         <v>0.25</v>
       </c>
-      <c r="G7"/>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13" t="n">
         <v>0.15</v>
       </c>
-      <c r="D8" t="n">
+      <c r="C13" t="n">
         <v>0.15</v>
       </c>
-      <c r="E8" t="n">
+      <c r="D13" t="n">
         <v>0.2</v>
       </c>
-      <c r="F8" t="n">
+      <c r="E13" t="n">
         <v>0.2</v>
       </c>
-      <c r="G8"/>
-      <c r="H8" t="s">
+      <c r="F13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16"/>
+      <c r="B16" t="n">
         <v>100</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C16" t="n">
+        <v>101.01</v>
+      </c>
+      <c r="D16" t="n">
+        <v>119.99</v>
+      </c>
+      <c r="E16" t="n">
+        <v>120</v>
+      </c>
+      <c r="F16" t="n">
+        <v>139</v>
+      </c>
+      <c r="G16" t="n">
+        <v>140</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
         <v>101</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D17" t="n">
         <v>120</v>
       </c>
-      <c r="D9" t="n">
-        <v>120</v>
-      </c>
-      <c r="E9" t="n">
-        <v>139</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E17" t="n">
+        <v>119.99</v>
+      </c>
+      <c r="F17" t="n">
+        <v>139.01</v>
+      </c>
+      <c r="G17" t="n">
         <v>140</v>
       </c>
-      <c r="G9"/>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18"/>
+      <c r="B18" t="n">
         <v>0.15</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C18" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19" t="n">
         <v>0.15</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C19" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.25</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E19" t="n">
         <v>0.25</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F19" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.35</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C20" t="n">
         <v>0.05</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D20" t="n">
         <v>0.09</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="E20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21" t="n">
         <v>0.8</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C21" t="n">
         <v>0.8</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D21" t="n">
         <v>0.85</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E21" t="n">
         <v>0.85</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F21" t="n">
         <v>0.9</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G21" t="n">
         <v>0.9</v>
       </c>
-      <c r="G12"/>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4489.25</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5764.18</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8212.96</v>
-      </c>
-      <c r="D13" t="n">
-        <v>8165.2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10942.65</v>
-      </c>
-      <c r="F13" t="n">
-        <v>15139.47</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13" t="s">
+      <c r="H21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14" t="s">
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22" t="n">
+        <v>8103.86</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9306.17</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11633.46</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11581.15</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14314.03</v>
+      </c>
+      <c r="G22" t="n">
+        <v>16714.51</v>
+      </c>
+      <c r="H22" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="n">
+        <v>9928.79</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12839.56</v>
+      </c>
+      <c r="D23" t="n">
+        <v>16568.59</v>
+      </c>
+      <c r="E23" t="n">
+        <v>16462.88</v>
+      </c>
+      <c r="F23" t="n">
+        <v>20925.14</v>
+      </c>
+      <c r="G23" t="n">
+        <v>26893.58</v>
+      </c>
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/output/sites/table_summary_model_parameters.xlsx
+++ b/output/sites/table_summary_model_parameters.xlsx
@@ -446,22 +446,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>662</v>
+        <v>500</v>
       </c>
       <c r="C2" t="n">
-        <v>665</v>
+        <v>508</v>
       </c>
       <c r="D2" t="n">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="E2" t="n">
-        <v>726</v>
+        <v>668</v>
       </c>
       <c r="F2" t="n">
-        <v>790</v>
+        <v>829</v>
       </c>
       <c r="G2" t="n">
-        <v>794</v>
+        <v>838</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -472,22 +472,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>913</v>
+        <v>942</v>
       </c>
       <c r="C3" t="n">
-        <v>919</v>
+        <v>948</v>
       </c>
       <c r="D3" t="n">
-        <v>1008</v>
+        <v>1054</v>
       </c>
       <c r="E3" t="n">
-        <v>1006</v>
+        <v>1055</v>
       </c>
       <c r="F3" t="n">
-        <v>1091</v>
+        <v>1158</v>
       </c>
       <c r="G3" t="n">
-        <v>1095</v>
+        <v>1163</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -499,7 +499,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>20.68</v>
+        <v>20.69</v>
       </c>
       <c r="D4" t="n">
         <v>27.63</v>
@@ -508,7 +508,7 @@
         <v>27.42</v>
       </c>
       <c r="F4" t="n">
-        <v>35.96</v>
+        <v>35.97</v>
       </c>
       <c r="G4" t="n">
         <v>38</v>
@@ -523,7 +523,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>20.68</v>
+        <v>20.69</v>
       </c>
       <c r="D5" t="n">
         <v>27.63</v>
@@ -532,7 +532,7 @@
         <v>27.42</v>
       </c>
       <c r="F5" t="n">
-        <v>35.98</v>
+        <v>35.96</v>
       </c>
       <c r="G5" t="n">
         <v>38</v>
@@ -544,7 +544,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="n">
-        <v>2.85</v>
+        <v>2.79</v>
       </c>
       <c r="C6" t="n">
         <v>3.1</v>
@@ -559,7 +559,7 @@
         <v>3.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.77</v>
+        <v>3.79</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -568,7 +568,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="C7" t="n">
         <v>3.1</v>
@@ -583,7 +583,7 @@
         <v>3.5</v>
       </c>
       <c r="G7" t="n">
-        <v>3.76</v>
+        <v>3.83</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -607,7 +607,7 @@
         <v>5.29</v>
       </c>
       <c r="G8" t="n">
-        <v>6.22</v>
+        <v>6.33</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -631,7 +631,7 @@
         <v>5.29</v>
       </c>
       <c r="G9" t="n">
-        <v>6.1</v>
+        <v>6.27</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -640,22 +640,22 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="n">
-        <v>4000.03</v>
+        <v>4000</v>
       </c>
       <c r="C10" t="n">
-        <v>4400.97</v>
+        <v>4398.75</v>
       </c>
       <c r="D10" t="n">
-        <v>7976.44</v>
+        <v>7976.39</v>
       </c>
       <c r="E10" t="n">
-        <v>7894.66</v>
+        <v>7898.23</v>
       </c>
       <c r="F10" t="n">
-        <v>12083.2</v>
+        <v>12079.54</v>
       </c>
       <c r="G10" t="n">
-        <v>12999.97</v>
+        <v>12999.99</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -667,16 +667,16 @@
         <v>4000</v>
       </c>
       <c r="C11" t="n">
-        <v>4399.66</v>
+        <v>4399.27</v>
       </c>
       <c r="D11" t="n">
-        <v>7977.19</v>
+        <v>7978.32</v>
       </c>
       <c r="E11" t="n">
-        <v>7900.23</v>
+        <v>7900.75</v>
       </c>
       <c r="F11" t="n">
-        <v>12080.98</v>
+        <v>12082.2</v>
       </c>
       <c r="G11" t="n">
         <v>13000</v>
@@ -787,10 +787,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>101.01</v>
+        <v>101</v>
       </c>
       <c r="D16" t="n">
-        <v>119.99</v>
+        <v>120</v>
       </c>
       <c r="E16" t="n">
         <v>120</v>
@@ -814,13 +814,13 @@
         <v>101</v>
       </c>
       <c r="D17" t="n">
-        <v>120</v>
+        <v>119.99</v>
       </c>
       <c r="E17" t="n">
         <v>119.99</v>
       </c>
       <c r="F17" t="n">
-        <v>139.01</v>
+        <v>139</v>
       </c>
       <c r="G17" t="n">
         <v>140</v>
@@ -844,7 +844,7 @@
         <v>0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="G18" t="n">
         <v>0.35</v>
@@ -859,7 +859,7 @@
         <v>0.15</v>
       </c>
       <c r="C19" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="D19" t="n">
         <v>0.25</v>
@@ -868,7 +868,7 @@
         <v>0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="G19" t="n">
         <v>0.35</v>
@@ -928,22 +928,22 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="n">
-        <v>8103.86</v>
+        <v>7983.03</v>
       </c>
       <c r="C22" t="n">
-        <v>9306.17</v>
+        <v>9307.61</v>
       </c>
       <c r="D22" t="n">
-        <v>11633.46</v>
+        <v>11632.73</v>
       </c>
       <c r="E22" t="n">
-        <v>11581.15</v>
+        <v>11580.81</v>
       </c>
       <c r="F22" t="n">
-        <v>14314.03</v>
+        <v>14310.4</v>
       </c>
       <c r="G22" t="n">
-        <v>16714.51</v>
+        <v>16765.13</v>
       </c>
       <c r="H22" t="s">
         <v>21</v>
@@ -952,22 +952,22 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="n">
-        <v>9928.79</v>
+        <v>9761.47</v>
       </c>
       <c r="C23" t="n">
-        <v>12839.56</v>
+        <v>12837.3</v>
       </c>
       <c r="D23" t="n">
-        <v>16568.59</v>
+        <v>16568.43</v>
       </c>
       <c r="E23" t="n">
-        <v>16462.88</v>
+        <v>16461.64</v>
       </c>
       <c r="F23" t="n">
-        <v>20925.14</v>
+        <v>20920.88</v>
       </c>
       <c r="G23" t="n">
-        <v>26893.58</v>
+        <v>27570.41</v>
       </c>
       <c r="H23" t="s">
         <v>22</v>
@@ -976,7 +976,7 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="n">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="C24" t="n">
         <v>1.37</v>
@@ -991,7 +991,7 @@
         <v>4.27</v>
       </c>
       <c r="G24" t="n">
-        <v>6.5</v>
+        <v>6.91</v>
       </c>
       <c r="H24" t="s">
         <v>23</v>

--- a/output/sites/table_summary_model_parameters.xlsx
+++ b/output/sites/table_summary_model_parameters.xlsx
@@ -455,7 +455,7 @@
         <v>669</v>
       </c>
       <c r="E2" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F2" t="n">
         <v>829</v>
@@ -475,13 +475,13 @@
         <v>942</v>
       </c>
       <c r="C3" t="n">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D3" t="n">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E3" t="n">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="F3" t="n">
         <v>1158</v>
@@ -499,13 +499,13 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>20.69</v>
+        <v>20.68</v>
       </c>
       <c r="D4" t="n">
         <v>27.63</v>
       </c>
       <c r="E4" t="n">
-        <v>27.42</v>
+        <v>27.41</v>
       </c>
       <c r="F4" t="n">
         <v>35.97</v>
@@ -544,7 +544,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="n">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="C6" t="n">
         <v>3.1</v>
@@ -559,7 +559,7 @@
         <v>3.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.79</v>
+        <v>3.82</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -568,7 +568,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="C7" t="n">
         <v>3.1</v>
@@ -583,7 +583,7 @@
         <v>3.5</v>
       </c>
       <c r="G7" t="n">
-        <v>3.83</v>
+        <v>3.84</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -607,7 +607,7 @@
         <v>5.29</v>
       </c>
       <c r="G8" t="n">
-        <v>6.33</v>
+        <v>6.15</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -631,7 +631,7 @@
         <v>5.29</v>
       </c>
       <c r="G9" t="n">
-        <v>6.27</v>
+        <v>6.26</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -643,19 +643,19 @@
         <v>4000</v>
       </c>
       <c r="C10" t="n">
-        <v>4398.75</v>
+        <v>4399.98</v>
       </c>
       <c r="D10" t="n">
-        <v>7976.39</v>
+        <v>7977.53</v>
       </c>
       <c r="E10" t="n">
-        <v>7898.23</v>
+        <v>7899.25</v>
       </c>
       <c r="F10" t="n">
-        <v>12079.54</v>
+        <v>12080.02</v>
       </c>
       <c r="G10" t="n">
-        <v>12999.99</v>
+        <v>12999.98</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -667,19 +667,19 @@
         <v>4000</v>
       </c>
       <c r="C11" t="n">
-        <v>4399.27</v>
+        <v>4397.81</v>
       </c>
       <c r="D11" t="n">
-        <v>7978.32</v>
+        <v>7977.51</v>
       </c>
       <c r="E11" t="n">
-        <v>7900.75</v>
+        <v>7899.52</v>
       </c>
       <c r="F11" t="n">
-        <v>12082.2</v>
+        <v>12082.21</v>
       </c>
       <c r="G11" t="n">
-        <v>13000</v>
+        <v>12999.99</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -844,7 +844,7 @@
         <v>0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="G18" t="n">
         <v>0.35</v>
@@ -928,22 +928,22 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="n">
-        <v>7983.03</v>
+        <v>7842.39</v>
       </c>
       <c r="C22" t="n">
-        <v>9307.61</v>
+        <v>9308.46</v>
       </c>
       <c r="D22" t="n">
-        <v>11632.73</v>
+        <v>11633.11</v>
       </c>
       <c r="E22" t="n">
-        <v>11580.81</v>
+        <v>11581.2</v>
       </c>
       <c r="F22" t="n">
-        <v>14310.4</v>
+        <v>14310.84</v>
       </c>
       <c r="G22" t="n">
-        <v>16765.13</v>
+        <v>16645.26</v>
       </c>
       <c r="H22" t="s">
         <v>21</v>
@@ -952,22 +952,22 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="n">
-        <v>9761.47</v>
+        <v>9800.66</v>
       </c>
       <c r="C23" t="n">
-        <v>12837.3</v>
+        <v>12838.64</v>
       </c>
       <c r="D23" t="n">
-        <v>16568.43</v>
+        <v>16568.52</v>
       </c>
       <c r="E23" t="n">
-        <v>16461.64</v>
+        <v>16462.02</v>
       </c>
       <c r="F23" t="n">
-        <v>20920.88</v>
+        <v>20920.92</v>
       </c>
       <c r="G23" t="n">
-        <v>27570.41</v>
+        <v>27006.56</v>
       </c>
       <c r="H23" t="s">
         <v>22</v>
@@ -976,7 +976,7 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="C24" t="n">
         <v>1.37</v>
@@ -988,10 +988,10 @@
         <v>2.28</v>
       </c>
       <c r="F24" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="G24" t="n">
-        <v>6.91</v>
+        <v>6.66</v>
       </c>
       <c r="H24" t="s">
         <v>23</v>
